--- a/finalTable.xlsx
+++ b/finalTable.xlsx
@@ -3815,44 +3815,272 @@
         <v>Ошибка</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>111JUN-PUG-1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Игрушка-грелка  Мопс</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2239</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2989</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I4" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K4" t="str">
+        <v>310</v>
+      </c>
+      <c r="L4" t="str">
+        <v>100</v>
+      </c>
+      <c r="M4" t="str">
+        <v>50</v>
+      </c>
+      <c r="N4" t="str">
+        <v>170</v>
+      </c>
+      <c r="O4" t="str">
+        <v>https://static.detmir.st/media_out/061/492/3492061/1500/0.jpg?1609210819839</v>
+      </c>
+      <c r="P4" t="str">
+        <v>https://static.detmir.st/media_out/061/492/3492061/1500/0.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/1500/1.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/150/0.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/150/1.jpg?1609210819839</v>
+      </c>
+      <c r="T4" t="str">
+        <v>111JUN-PUG-1</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Игрушка-грелка для самых-самых маленьких. Размер всего 17 см! В дополнение к популярным грелкам   эти 12 наиболее востребованных Juniorгероев меньше по размеру и имеют индивидуальную упаковку, являясь идеальным подарком на все случаи жизни. Просто нагрейте в микроволновке в течение 30 секунд, чтобы обеспечить 1-2 часа успокаивающего тепла и комфорта. Дайте полностью остыть перед повторным нагревом. При должном уходе эти универсальные и полезные подарки прослужат долгие годы.</v>
+      </c>
+      <c r="AG4" t="str">
+        <v>разноцветный</v>
+      </c>
+      <c r="AI4" t="str">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>111159</v>
+      <c r="AL4" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>11195221</v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve">Кошелек  Единорог с пайетками </v>
+      </c>
+      <c r="D5" t="str">
+        <v>1819</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2569</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I5" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K5" t="str">
+        <v>30</v>
+      </c>
+      <c r="L5" t="str">
+        <v>110</v>
+      </c>
+      <c r="M5" t="str">
+        <v>30</v>
+      </c>
+      <c r="N5" t="str">
+        <v>120</v>
+      </c>
+      <c r="O5" t="str">
+        <v>https://static.detmir.st/media_out/481/217/3217481/1500/0.jpg?1574132425425</v>
+      </c>
+      <c r="P5" t="str">
+        <v>https://static.detmir.st/media_out/481/217/3217481/1500/0.jpg?1574132425425</v>
+      </c>
+      <c r="T5" t="str">
+        <v>11195221</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Эти разноцветные, забавные зверушки от торговой марки , ворвались в мир игрушек и сразу покорили миллион сердец своими большими добрыми глазами!Различные мелочи, а также монетки, отлично поместятся в этот небольшой кошелечек, который можно брать с собой на прогулку или просто использовать в качестве стильного аксессуара. Он будет гармонично дополнять образ юной модницы и радовать ее каждый день.Особенности:Данный кошелечек подходит для хранения денег или каких-либо мелочей. Он выполнен в виде полукруга и имеет небольшой, компактный размер, благодаря чему вам не составит никакого труда брать его везде с собой. У него одно вместительное отделение, которое плотно закрывается с помощью замка-молнии, исключая случайное выпадение имеющихся внутри вещей наружу. Характеристики:Возраст: от 3х летРазмеры: 3х12х11 см.Вес: 0,03  кг.Материал: иль, полиэфирное волокно, пластмасса.</v>
+      </c>
+      <c r="AG5" t="str">
+        <v>разноцветный</v>
+      </c>
+      <c r="AI5" t="str">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>11120181712</v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve">Игрушка мягкая  Поросенок-брелок </v>
+      </c>
+      <c r="D6" t="str">
+        <v>199</v>
+      </c>
+      <c r="E6" t="str">
+        <v>949</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I6" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K6" t="str">
+        <v>20</v>
+      </c>
+      <c r="L6" t="str">
+        <v>70</v>
+      </c>
+      <c r="M6" t="str">
+        <v>60</v>
+      </c>
+      <c r="N6" t="str">
+        <v>90</v>
+      </c>
+      <c r="O6" t="str">
+        <v>https://static.detmir.st/media_out/535/142/3142535/1500/0.jpg?1551490216326</v>
+      </c>
+      <c r="P6" t="str">
+        <v>https://static.detmir.st/media_out/535/142/3142535/1500/0.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/1.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/2.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/3.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/4.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/0.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/1.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/2.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/3.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/4.jpg?1551490216326</v>
+      </c>
+      <c r="T6" t="str">
+        <v>11120181712</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Брелок для ключей со свинкой — это милый и забавный подарок, способный поднять настроение каждому.Поросенок розового цвета, с забавной мордочкой и милым пяточком. Идеально подойдет в качестве новогоднего подарка на год Свиньи.Игрушка мягко набивная, поэтому внутри нее размещен плотный наполнитель, а имитация ее шерстки изготовлена из высококачественного текстиля с пушистой и приятной на ощупь поверхностью.</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>розовый</v>
+      </c>
+      <c r="AI6" t="str">
+        <v>6</v>
+      </c>
+      <c r="AL6" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1110000996GE_SHC</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Игрушка  мягкая _</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3099</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3849</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I7" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K7" t="str">
+        <v>114</v>
+      </c>
+      <c r="L7" t="str">
+        <v>50</v>
+      </c>
+      <c r="M7" t="str">
+        <v>50</v>
+      </c>
+      <c r="N7" t="str">
+        <v>80</v>
+      </c>
+      <c r="O7" t="str">
+        <v>https://static.detmir.st/media_out/142/339/3339142/1500/0.jpg?1596510019117</v>
+      </c>
+      <c r="P7" t="str">
+        <v>https://static.detmir.st/media_out/142/339/3339142/1500/0.jpg?1596510019117</v>
+      </c>
+      <c r="T7" t="str">
+        <v>1110000996GE_SHC</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Плюшевая игрушка-погремушка Черепашка рекомендована для детей от 3 лет.Игрушка производство Германия ТМ SCHILDKROET, ручная работа.Цвет: синийУпаковка: пакет.Мягкая игрушка-погремушка Черепашка из мягкого плюша размером 14 см изготовлена из высококачественных материалов в Германии. Плюшевая игрушка-погремушка может быть как дополнительный аксессуар для игры с куклой (игрушка куклы), так и самостоятельной игрушкой для ребенка.Плюшевая игрушка-погремушка Черепашка – прекрасный аксессуар для кукол коллекции ТМ SCHILDKROET.Игра с игрушкой способствует развитию у ребенка воображения и мелкой моторики.</v>
+      </c>
+      <c r="AG7" t="str">
+        <v>красный</v>
+      </c>
+      <c r="AI7" t="str">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>5</v>
+      </c>
+      <c r="B8" t="str">
+        <v>111JUN-PIG-1</v>
       </c>
       <c r="C8" t="str">
-        <v>Сумочка Фламинго Розовый</v>
-      </c>
-      <c r="D8">
-        <v>1869</v>
-      </c>
-      <c r="E8">
-        <f>D8+750</f>
-        <v>2619</v>
+        <v>Игрушка-грелка  Поросенок</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2239</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2989</v>
       </c>
       <c r="G8" t="str">
         <v>Не облагается</v>
       </c>
       <c r="I8" t="str">
-        <v>Мягкая игрушка</v>
-      </c>
-      <c r="K8">
-        <v>130</v>
-      </c>
-      <c r="L8">
-        <v>260</v>
-      </c>
-      <c r="M8">
-        <v>260</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="T8">
-        <f>B8</f>
-        <v>111159</v>
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K8" t="str">
+        <v>310</v>
+      </c>
+      <c r="L8" t="str">
+        <v>100</v>
+      </c>
+      <c r="M8" t="str">
+        <v>50</v>
+      </c>
+      <c r="N8" t="str">
+        <v>170</v>
+      </c>
+      <c r="O8" t="str">
+        <v>https://static.detmir.st/media_out/063/492/3492063/1500/0.jpg?1609210819839</v>
+      </c>
+      <c r="P8" t="str">
+        <v>https://static.detmir.st/media_out/063/492/3492063/1500/0.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/1500/1.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/150/0.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/150/1.jpg?1609210819839</v>
+      </c>
+      <c r="T8" t="str">
+        <v>111JUN-PIG-1</v>
       </c>
       <c r="U8" t="str">
         <v>Мягкая игрушка</v>
@@ -3863,26 +4091,17 @@
       <c r="W8" t="str">
         <v>Skylin</v>
       </c>
-      <c r="Y8" t="str" xml:space="preserve">
-        <v xml:space="preserve">“Розовый Фламинго” — яркая и необычная сумочка для девочек от через плечо, выполненная с использованием модных пайеток, меняющих цвет. Главный аксессуар юных модниц. Сумочка выполнена в нежных розовых тонах в виде Фламинго. В нее легко поместится мобильный телефон, косметика и сладости, а так же другие аксессуары._x000d_
-_x000d_
-Одно отделение на молнии _x000d_
-Удобная ручка для носки через плечо _x000d_
-Вместительное основное отделение _x000d_
-Игрушка изготовлена в соответствии с ГОСТ 25779-90 из высококачественных материалов_x000d_
-Характеристики:_x000d_
-_x000d_
-Предназначено для детей старше 3-х лет _x000d_
-Размер: 3×26×26 см _x000d_
-Материалы: искусственный мех, пайетки, фурнитура,текстильные материалы _x000d_
-Срок службы (годности): не ограничен</v>
+      <c r="Y8" t="str">
+        <v>Игрушка-грелка для самых-самых маленьких. Размер всего 17 см! В дополнение к популярным грелкам   эти 12 наиболее востребованных Juniorгероев меньше по размеру и имеют индивидуальную упаковку, являясь идеальным подарком на все случаи жизни. Просто нагрейте в микроволновке в течение 30 секунд, чтобы обеспечить 1-2 часа успокаивающего тепла и комфорта. Дайте полностью остыть перед повторным нагревом. При должном уходе эти универсальные и полезные подарки прослужат долгие годы.</v>
       </c>
       <c r="AG8" t="str">
-        <v>розовый</v>
-      </c>
-      <c r="AI8">
-        <f>QUOTIENT(M8,10)</f>
-        <v>26</v>
+        <v>разноцветный</v>
+      </c>
+      <c r="AI8" t="str">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="str">
+        <v>для всех возростов</v>
       </c>
       <c r="AR8" t="str">
         <v>Россия</v>
@@ -25360,44 +25579,272 @@
         <v>Ошибка</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8">
+    <row r="4">
+      <c r="A4" t="str">
+        <v>1</v>
+      </c>
+      <c r="B4" t="str">
+        <v>111JUN-PUG-1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Игрушка-грелка  Мопс</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2239</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2989</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I4" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K4" t="str">
+        <v>310</v>
+      </c>
+      <c r="L4" t="str">
+        <v>100</v>
+      </c>
+      <c r="M4" t="str">
+        <v>50</v>
+      </c>
+      <c r="N4" t="str">
+        <v>170</v>
+      </c>
+      <c r="O4" t="str">
+        <v>https://static.detmir.st/media_out/061/492/3492061/1500/0.jpg?1609210819839</v>
+      </c>
+      <c r="P4" t="str">
+        <v>https://static.detmir.st/media_out/061/492/3492061/1500/0.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/1500/1.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/150/0.jpg?1609210819839,https://static.detmir.st/media_out/061/492/3492061/150/1.jpg?1609210819839</v>
+      </c>
+      <c r="T4" t="str">
+        <v>111JUN-PUG-1</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Игрушка-грелка для самых-самых маленьких. Размер всего 17 см! В дополнение к популярным грелкам   эти 12 наиболее востребованных Juniorгероев меньше по размеру и имеют индивидуальную упаковку, являясь идеальным подарком на все случаи жизни. Просто нагрейте в микроволновке в течение 30 секунд, чтобы обеспечить 1-2 часа успокаивающего тепла и комфорта. Дайте полностью остыть перед повторным нагревом. При должном уходе эти универсальные и полезные подарки прослужат долгие годы.</v>
+      </c>
+      <c r="AG4" t="str">
+        <v>разноцветный</v>
+      </c>
+      <c r="AI4" t="str">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>111159</v>
+      <c r="AL4" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>11195221</v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve">Кошелек  Единорог с пайетками </v>
+      </c>
+      <c r="D5" t="str">
+        <v>1819</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2569</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I5" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K5" t="str">
+        <v>30</v>
+      </c>
+      <c r="L5" t="str">
+        <v>110</v>
+      </c>
+      <c r="M5" t="str">
+        <v>30</v>
+      </c>
+      <c r="N5" t="str">
+        <v>120</v>
+      </c>
+      <c r="O5" t="str">
+        <v>https://static.detmir.st/media_out/481/217/3217481/1500/0.jpg?1574132425425</v>
+      </c>
+      <c r="P5" t="str">
+        <v>https://static.detmir.st/media_out/481/217/3217481/1500/0.jpg?1574132425425</v>
+      </c>
+      <c r="T5" t="str">
+        <v>11195221</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>Эти разноцветные, забавные зверушки от торговой марки , ворвались в мир игрушек и сразу покорили миллион сердец своими большими добрыми глазами!Различные мелочи, а также монетки, отлично поместятся в этот небольшой кошелечек, который можно брать с собой на прогулку или просто использовать в качестве стильного аксессуара. Он будет гармонично дополнять образ юной модницы и радовать ее каждый день.Особенности:Данный кошелечек подходит для хранения денег или каких-либо мелочей. Он выполнен в виде полукруга и имеет небольшой, компактный размер, благодаря чему вам не составит никакого труда брать его везде с собой. У него одно вместительное отделение, которое плотно закрывается с помощью замка-молнии, исключая случайное выпадение имеющихся внутри вещей наружу. Характеристики:Возраст: от 3х летРазмеры: 3х12х11 см.Вес: 0,03  кг.Материал: иль, полиэфирное волокно, пластмасса.</v>
+      </c>
+      <c r="AG5" t="str">
+        <v>разноцветный</v>
+      </c>
+      <c r="AI5" t="str">
+        <v>11</v>
+      </c>
+      <c r="AL5" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>11120181712</v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve">Игрушка мягкая  Поросенок-брелок </v>
+      </c>
+      <c r="D6" t="str">
+        <v>199</v>
+      </c>
+      <c r="E6" t="str">
+        <v>949</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I6" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K6" t="str">
+        <v>20</v>
+      </c>
+      <c r="L6" t="str">
+        <v>70</v>
+      </c>
+      <c r="M6" t="str">
+        <v>60</v>
+      </c>
+      <c r="N6" t="str">
+        <v>90</v>
+      </c>
+      <c r="O6" t="str">
+        <v>https://static.detmir.st/media_out/535/142/3142535/1500/0.jpg?1551490216326</v>
+      </c>
+      <c r="P6" t="str">
+        <v>https://static.detmir.st/media_out/535/142/3142535/1500/0.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/1.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/2.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/3.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/1500/4.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/0.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/1.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/2.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/3.jpg?1551490216326,https://static.detmir.st/media_out/535/142/3142535/150/4.jpg?1551490216326</v>
+      </c>
+      <c r="T6" t="str">
+        <v>11120181712</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Брелок для ключей со свинкой — это милый и забавный подарок, способный поднять настроение каждому.Поросенок розового цвета, с забавной мордочкой и милым пяточком. Идеально подойдет в качестве новогоднего подарка на год Свиньи.Игрушка мягко набивная, поэтому внутри нее размещен плотный наполнитель, а имитация ее шерстки изготовлена из высококачественного текстиля с пушистой и приятной на ощупь поверхностью.</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>розовый</v>
+      </c>
+      <c r="AI6" t="str">
+        <v>6</v>
+      </c>
+      <c r="AL6" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1110000996GE_SHC</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Игрушка  мягкая _</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3099</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3849</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Не облагается</v>
+      </c>
+      <c r="I7" t="str">
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K7" t="str">
+        <v>114</v>
+      </c>
+      <c r="L7" t="str">
+        <v>50</v>
+      </c>
+      <c r="M7" t="str">
+        <v>50</v>
+      </c>
+      <c r="N7" t="str">
+        <v>80</v>
+      </c>
+      <c r="O7" t="str">
+        <v>https://static.detmir.st/media_out/142/339/3339142/1500/0.jpg?1596510019117</v>
+      </c>
+      <c r="P7" t="str">
+        <v>https://static.detmir.st/media_out/142/339/3339142/1500/0.jpg?1596510019117</v>
+      </c>
+      <c r="T7" t="str">
+        <v>1110000996GE_SHC</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Плюшевая игрушка-погремушка Черепашка рекомендована для детей от 3 лет.Игрушка производство Германия ТМ SCHILDKROET, ручная работа.Цвет: синийУпаковка: пакет.Мягкая игрушка-погремушка Черепашка из мягкого плюша размером 14 см изготовлена из высококачественных материалов в Германии. Плюшевая игрушка-погремушка может быть как дополнительный аксессуар для игры с куклой (игрушка куклы), так и самостоятельной игрушкой для ребенка.Плюшевая игрушка-погремушка Черепашка – прекрасный аксессуар для кукол коллекции ТМ SCHILDKROET.Игра с игрушкой способствует развитию у ребенка воображения и мелкой моторики.</v>
+      </c>
+      <c r="AG7" t="str">
+        <v>красный</v>
+      </c>
+      <c r="AI7" t="str">
+        <v>5</v>
+      </c>
+      <c r="AL7" t="str">
+        <v>для всех возростов</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>5</v>
+      </c>
+      <c r="B8" t="str">
+        <v>111JUN-PIG-1</v>
       </c>
       <c r="C8" t="str">
-        <v>Сумочка Фламинго Розовый</v>
-      </c>
-      <c r="D8">
-        <v>1869</v>
-      </c>
-      <c r="E8">
-        <f>D8+750</f>
-        <v>2619</v>
+        <v>Игрушка-грелка  Поросенок</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2239</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2989</v>
       </c>
       <c r="G8" t="str">
         <v>Не облагается</v>
       </c>
       <c r="I8" t="str">
-        <v>Мягкая игрушка</v>
-      </c>
-      <c r="K8">
-        <v>130</v>
-      </c>
-      <c r="L8">
-        <v>260</v>
-      </c>
-      <c r="M8">
-        <v>260</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="T8">
-        <f>B8</f>
-        <v>111159</v>
+        <v>мягкая игрушка</v>
+      </c>
+      <c r="K8" t="str">
+        <v>310</v>
+      </c>
+      <c r="L8" t="str">
+        <v>100</v>
+      </c>
+      <c r="M8" t="str">
+        <v>50</v>
+      </c>
+      <c r="N8" t="str">
+        <v>170</v>
+      </c>
+      <c r="O8" t="str">
+        <v>https://static.detmir.st/media_out/063/492/3492063/1500/0.jpg?1609210819839</v>
+      </c>
+      <c r="P8" t="str">
+        <v>https://static.detmir.st/media_out/063/492/3492063/1500/0.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/1500/1.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/150/0.jpg?1609210819839,https://static.detmir.st/media_out/063/492/3492063/150/1.jpg?1609210819839</v>
+      </c>
+      <c r="T8" t="str">
+        <v>111JUN-PIG-1</v>
       </c>
       <c r="U8" t="str">
         <v>Мягкая игрушка</v>
@@ -25408,26 +25855,17 @@
       <c r="W8" t="str">
         <v>Skylin</v>
       </c>
-      <c r="Y8" t="str" xml:space="preserve">
-        <v xml:space="preserve">“Розовый Фламинго” — яркая и необычная сумочка для девочек от через плечо, выполненная с использованием модных пайеток, меняющих цвет. Главный аксессуар юных модниц. Сумочка выполнена в нежных розовых тонах в виде Фламинго. В нее легко поместится мобильный телефон, косметика и сладости, а так же другие аксессуары._x000d_
-_x000d_
-Одно отделение на молнии _x000d_
-Удобная ручка для носки через плечо _x000d_
-Вместительное основное отделение _x000d_
-Игрушка изготовлена в соответствии с ГОСТ 25779-90 из высококачественных материалов_x000d_
-Характеристики:_x000d_
-_x000d_
-Предназначено для детей старше 3-х лет _x000d_
-Размер: 3×26×26 см _x000d_
-Материалы: искусственный мех, пайетки, фурнитура,текстильные материалы _x000d_
-Срок службы (годности): не ограничен</v>
+      <c r="Y8" t="str">
+        <v>Игрушка-грелка для самых-самых маленьких. Размер всего 17 см! В дополнение к популярным грелкам   эти 12 наиболее востребованных Juniorгероев меньше по размеру и имеют индивидуальную упаковку, являясь идеальным подарком на все случаи жизни. Просто нагрейте в микроволновке в течение 30 секунд, чтобы обеспечить 1-2 часа успокаивающего тепла и комфорта. Дайте полностью остыть перед повторным нагревом. При должном уходе эти универсальные и полезные подарки прослужат долгие годы.</v>
       </c>
       <c r="AG8" t="str">
-        <v>розовый</v>
-      </c>
-      <c r="AI8">
-        <f>QUOTIENT(M8,10)</f>
-        <v>26</v>
+        <v>разноцветный</v>
+      </c>
+      <c r="AI8" t="str">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="str">
+        <v>для всех возростов</v>
       </c>
       <c r="AR8" t="str">
         <v>Россия</v>
